--- a/500all/speech_level/speeches_CHRG-114hhrg93669.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93669.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. Ambassador Nuland, welcome.    This hearing will come to order, and our topic today is     ``Ukraine Under Siege.'' And Ukraine is under siege by Russia at this moment, and unfortunately, the response to Russia's aggression by the administration has been quite tepid.    A year ago, Russia invaded and seized Crimea, and some thought that Vladimir Putin would stop there. Not so. And last April, Ranking Member Eliot Engel and I led a delegation to Ukraine. We traveled to the Russian speaking-east. I think we had eight members on that delegation. We went into Dnepropetrovsk, which is bordering Luhansk and Donetsk.    And I have to share with the members here that the many Ukrainians that--and these are Russian speaking Ukrainians in the far east that Mr. Engel and I met with, wanted to be Ukrainians. They did not want to be separatists.    We spoke to the women's groups there, to the lawyers' groups, civil society, the Jewish group, various ethnic minorities, the governor, the mayor. At Passover, Mr. Engel spoke at the largest Jewish community center in Eastern Europe, the largest synagogue.    And I can just share with the members here what--I'll attest to the attitude was--one of the thoughts shared with us is it seems that Russia has recruited every skinhead and every malcontent in the Russian speaking world and are trying to bring them into the east. And they said we are holding them in a brig here until hostilities are over, because we can spot them, but they are coming in from Russia in order to try to overthrow our Government.    And so we have seen this situation where Moscow moved from annexing Crimea to aggressively supporting militant separatists in eastern Ukraine and indeed bringing Russian troops into the country. And Russia may now try to secure a land bridge to Crimea. That is the great concern here. That was the worry we heard that they would further expand this conflict; that they might try to seize the strategic port of Mariupol.    Now when we talked to the U.N. agencies on the ground, they count over 6,000 civilians who have been killed in this conflict. There are 1.7 million Ukrainians that have now been made refugees. To date, the actions taken by the U.S. and our EU allies, including economic sanctions and aid and diplomatic isolation, have not checked Putin. Indeed over the past year he has become bolder, even menacing NATO countries as he seeks to divide the alliance.    The Obama administration and our European allies have put hope in diplomatic and ceasefire arrangements, but it is not working. Last week, I met with the First Deputy Speaker of the Ukrainian Parliament who said that his country urgently needs anti-tank weapons such as the Javelin. He needs radar to pinpoint enemy fire in order to do the counter-battery work to suppress that artillery, and he needs communications equipment to overcome Russian jamming.    Ukrainian forces cannot match the advanced equipment that Russia is pouring into eastern Ukraine. And by the way, when you see tanks come into eastern Ukraine those are not Ukrainians in those tanks. Those are Russians. There is no shortage of the will to fight, only a shortage of defensive weapons.    But at the committee's hearing last week, Secretary Kerry said that President Obama has still not made a decision on whether to send defensive lethal military aid to Ukraine. Six months after President Poroshenko told a joint session of Congress in his words, ``One cannot win the war with blankets,'' it was not surprising, but still discouraging, to see him have to shop for defensive weapons, and unfortunately it has been very, very difficult for Ukraine to find any defensive weapons.    And I was just as discouraged to read in this weekend's Wall Street Journal that U.S. intelligence sharing with Ukraine keeps Ukraine in the dark. Satellite images are delayed and obscured making them less useful. Frustrated, Ukraine is approaching other countries like Canada to share such information. This isn't U.S. leadership. Moscow is also undermining Ukraine's economy. Today Russia is using its natural gas and other energy sources for political coercion and to generate economic chaos in the country.    Ukraine is facing an economic precipice. It desperately needs help. Meanwhile, Russia is winning the battle on the airwaves and they are doing it by broadcasting out conspiracy theories and propaganda. Anyone who has monitored what has been up on the air is well aware that this propaganda is offensive, is aimed at sowing confusion and undermining opposition to its aggression in Ukraine and elsewhere.    But we are barely in the game of countering this with the facts. As I told the Secretary last week, I would like to see more administration support for the effort Mr. Engel and I have undertaken to reform our international broadcasting. The Broadcasting Board of Governors is broken. If we can't begin to change minds, then the struggle over Ukraine today will become a generational struggle for the future of Eastern Europe. Ukraine's fate has security implications for well beyond its borders.    Now we passed this bill into the Senate last year. We were not able to bring it up and get it out of the Senate. We did not have the administration's support for it. But we have vetted this and have a great deal of support in this institution for getting back up on the air with Radio Free Europe, Radio Liberty type broadcasting that we did years ago to great effect with a message that will get the truth effectively into Eastern Europe and into Russia. It is time for strong and unwavering support of Ukraine. It is time for this right now, and many of these committee members on this committee, I believe, are concerned U.S. policy toward Ukraine may soon become, ``too little, too late.''    And I now turn to the ranking member for opening remarks that Mr. Engel of New York might wish to make.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman, and thank you for calling this very timely and important hearing. At the outset I want to acknowledge the Ukrainian Days participants who are in the audience today.    And Ambassador Nuland, welcome back. We thank you for testifying today. We thank you for your decades of service. And on a personal basis, let me also say that I have had to pleasure of working with you and I am a fan of your hard work, knowledge and tenacity. Thank you for all you do.    In Ukraine, the events of the past year and the ongoing Russian aggression threatens the security and stability of the entire region and undermines decades of American commitment to and investment in a Europe that is whole, free and at peace. In fact this is a threat to the whole international order.    So today we face grave questions. What can and should be done, and who should contribute to solving this problem? The United States is providing substantial assistance to the Government of Ukraine including billions of dollars in loan guarantees and non-lethal military aid. We have also imposed significant sanctions on Russia. We have sanctioned officials supporting Russia's aggression in Ukraine and targeted key sectors of the Russian economy. And we have seen results. Russia's economy has been taking on water, and this has only been magnified by the recent dip in oil prices.    These policies are good, but only up to a point. They don't go far enough, in my opinion. Russia's military gains in Ukraine have slowed, but Putin continues to grab land along the line of contact in violation of the Minsk ceasefire agreement, which mandates that Russian supported rebels pull back their forces.    The government in Kyiv is committed to reform, but leaders there struggle every day to preserve Ukrainian sovereignty. And while our financial assistance has kept Ukraine's economy afloat, they still confront a bleak economic outlook and the risks of a financial meltdown loom large.    Now when Ukraine gave up its nuclear arsenal in 1994, the United States made a commitment to help protect Ukrainian territorial integrity. That commitment was also made by Russia, U.K., China, other countries as well, but now our commitment is being tested. Let me also say that I think NATO made a grave mistake in 2008 when it refused to admit Ukraine and Georgia into NATO. I know that Germany and France resisted. The United States tried to push it. I didn't work. And I think we are paying the price today. I don't think that Putin would have been as aggressive if Ukraine was a part of NATO.    So last month I met with President Poroshenko. Met with him in Europe. His request was simple. Provide Ukraine with key weapons and military technology to defend itself. Specifically, Ukraine needs light anti-tank missiles to protect itself against rebels attacking with heavy, Russian supplied armor, not to evict the thousands of Russian troops inside Ukrainian borders. Ukraine needs longer range counter-battery radars to pinpoint attacking artillery and tanks, not to win a protracted war against Russia's military. And Ukraine needs better communications technology to deal with Russian efforts to jam their signals, not to advance on Moscow.    I was laughing when at that conference in Munich, Madam Secretary, you and I both attended, to hear the Russian Foreign Minister denying that Russian troops were in Ukraine, saying it was just Ukrainian rebels. Lies, lies and more lies.    I have spoken on the House floor calling on our Government to supply defensive weapons to Ukraine.    So Mr. Chairman, and I know you agree with me, Ukraine is not going to win a war against Russia, but it can impose a greater cost on Vladimir Putin's aggression and slow Russia's advances. And it has a chance to remain on its feet when all is said and done if it can impose a greater cost on Putin's aggression and slow Russia's advances.    Yet for nearly a year, the administration along with the vast majority of our European allies has resisted providing such assistance. Now to be sure, there are risks involved but there are also risks in allowing Putin to continue his aggression in Ukraine and to threaten other peaceful neighbors on Russia's periphery. And if Russia's aggressive pressure on the West reach the frontiers of our NATO allies, the dangers to Europe increase tremendously; the dangers to the NATO alliance increase tremendously.    In December, Congress unanimously passed the Ukraine Freedom Support Act. This legislation authorized the provision of lethal defensive aid. I was proud to lead House efforts to pass this legislation and happy that President Obama signed it. But I have been disappointed that the administration has not used any of the tools provided in this law.    It is time to ask the hard question. Are we willing to stand up to Vladimir Putin's aggression before he kills more people, does more economic damage, further destabilizes Europe and threatens our NATO allies? Or are the risks just so great that we will simply cut our losses? As time passes, our options grow fewer and less effective. That is why I am announcing today my plan to introduce new legislation. It will offer Ukraine greater assistance on a variety of fronts. It will dial up the pressure on Vladimir Putin for his reckless, destructive and destabilizing policies, and it will send a clear message that the United States stands with the people of Ukraine against Russian aggression. I look forward to working with Chairman Royce and other colleagues as we move ahead with this effort.    And finally, let me just add that our European allies need to confront these same questions of strategy and political will. In my view, wealthy countries such as Germany, France and others have a lot more skin in the game economically and strategically. They should be doing more to assist Ukraine on the economic front as they seem even less willing than we are to provide needed military assistance. They should double down, dig deep, and ensure Ukraine does not endure a financial meltdown. This would be a win-win, keeping Ukraine solvent and preventing an even greater catastrophe on the EU's borders. The people of Ukraine are watching, the government in Kyiv is watching, and the whole world is watching. We cannot sit idly by and allow Putin to continue his aggression.    So again Ambassador Nuland, thank you for appearing here today and I look forward to your testimony.</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen [presiding]. Thank you very much, Mr. Engel. I will recognize myself.    And Madam Ambassador, many members of our committee will continue to hammer the Obama administration on this damaging and unnecessary and senseless delay in providing the lethal aid that Ukraine so desperately needs, so you will continue to hear this line of questioning. Because despite this fragile ceasefire, Ukraine continues to suffer casualties at the hands of separatists backed by Moscow, and the Ukraine Government fears that Putin's thugs are simply using this opportunity, this ceasefire, to regroup their forces in preparation of yet another offensive.    Ukraine is in such tragic need of lethal aid from the U.S., and as you have heard both the head of our nation's intelligence community and the head of our Defense Department agree. Yet just last week Secretary Kerry testified before our committee as you have heard from the chairman and the ranking member that no decision on lethal aid has been made yet. And so we ask and continue to ask what is the hold up? Our allies need our assistance now. Enough with the excuses.    So in what part of the interagency process is the decision on lethal aid for Ukraine currently stalled? Does the State Department believe that the United States should send lethal aid to Ukraine, yes or no? And you said that the President has not made a decision yet, but you didn't say what you believe and what the State Department believes, and I would like to hear that.    Also the Magnitsky Act and that list, the tragic murder a few days ago of the Russian opposition leader came just days as we know as he was about to publish evidence of the Russian military in Ukraine. Has his murder been sanctioned as human rights violators under the Magnitsky Act? And can you give us an update on the progress or lack thereof of adding names on that Magnitsky Act so we can sanction those violators?    And also Secretary Kerry has said that the Russian Foreign Minister lied to his face about Russian involvement in Ukraine. What is the extent of Russian involvement? Are Russian soldiers in Ukraine? Are we prepared to say that participating in the conflict?    And on the 123 Agreement, and I will ask you to give me written responses to these because there is a series of questions. I have been advocating for the administration to withdraw from the U.S.-Russia nuclear cooperation agreement, the 123 Agreement, to prevent the potential future use of U.S. nuclear technology and assistance against our own interests. And given Putin's continued aggression, will the administration suspend the Russia 123 Agreement?    And lastly, I have been critical of how the administration plans on using funds to promote democracy and human rights in Russia especially after 2012 when Putin kicked out USAID from Russia. Please update the committee on what the administration plans to do with that money that has been left over from the U.S.-Russia investment fund.    Ambassador Nuland. That is a lot, Congresswoman. Let me go through them quickly. And thank you for letting me take the 123 question in writing because I want to make sure our agencies get it right for you.</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Ambassador, one thing I noticed about your opening statement was your lavish praise for the Ukrainian Parliament passing so much substantive legislation and you compared it to Congress.    Ambassador Nuland. I didn't compare it----</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman. And let me just say for me this is very complicated. I don't think that there is one solution to it, whether it is giving weapons if that is going to be the be-all and end-all that is going to resolve this problem or not. I am not even sure where I am at on that.    Let me just ask this question. I just want to ask one. I know we have been a lot on weapons. Because I think by now everybody is clear I am a multilateralist. I think that the world is different. We can't just do things on our own. I think it is leadership when you are bringing countries together and you have it in the work and stick together. I think that is leadership. But it is difficult. It is easy to do things by yourself. It is harder to do things in conjunction with others, and that is real leadership in my estimation.    Now where is, and I am not sure even on the weapons because like I say I am not sure where I am at because you don't like to see this, but have we had dialogue and where is our EU partners on giving defensive weapons to Ukraine? And in my mind I am still unclear what is defensive weapons, what are offensive weapons, whether or not those weapons, if you are in battle everyone says that Ukraine cannot beat Russia. Can Russia take those weapons away from the Ukrainians? But where is our EU partners on the issue of arming Ukraine?    Ambassador Nuland. Thank you, Congressman, and thank you for your support for Europe as the new ranking member of a subcommittee.    I am multilateralist, too. I would say with regard to managing our response on Ukraine, we spend almost as much time working with NATO and EU partners as we do working with Ukrainians, because that unity is so important and it makes it impossible for the Kremlin to divide us.    All 28 allies have provided, NATO allies have provided, some form of security assistance to Ukraine. That was one of the commitments we made to each other at Wales. It can take the form of training. It can take the form of support for the medical needs of the military, those kinds of things.    The U.K. and Poland have just announced, as you probably saw in the press, that they will start training Ukrainians along the lines of the notifications that we have sent up to you all. Where the divide happens and where the debate is happening, and there are allies and partners on both sides of this debate as there are folks in Washington, is on the question of the lethality of the weapons. So non-lethal defensive weapons everybody has been supportive of what we have done, what this committee has funded.    On the question of lethal, I think the debate is very similar with different allies on different sides. The President obviously has discussed this with all of his partners, most notably with Chancellor Merkel when she was here. The Vice President had a chance to talk to a lot of Europeans at Munich as did Secretary Kerry. So that conversation continues.</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. Let me agree with Mr. Meeks that this is a very complicated issue and perhaps a lot more complicated than the black and white alternatives that we have been hearing about today.    At one point we have heard that the Ukraine desperately needs economic help, and I would hope that our goal is to do what is right by Ukraine and bring peace to Ukraine and not our goal being to basically defeat and humiliate Russia for actions that it has taken. Because if that is our goal, the people of Ukraine will continue to suffer and suffer and suffer.    Back to the Ukraine desperately needs economic help, this whole incident in history started when the government of what you call the rotten regime that preceded the current Government of Ukraine went to our European allies to ask for help that it desperately needed for its economy. And the deal that was offered by our European allies was not sufficient, and in fact was much less than what the Russians offered them instead.    And when that deal was taken by the rotten regime that you have mentioned, all of a sudden that is when it became so rotten that we no longer, or the people could no longer put up with it. The pivotal moment was when it accepted the deal that was offered by Russia to help them in their desperate economic situation which our European allies were not willing to do. That ignited this situation. That is what turned policies type of situations, and perhaps the overturn of a rotten government through an electoral process into instead the overturn of the rotten regime by violent demonstrations and non-democratic means of overthrowing that regime. Two years later they could have kicked that Yanukovych out with a free election. They didn't wait.    Let me ask you about--okay, so let us hope that what we are doing now is aimed at trying to end the conflict that started in that more complicated way than black and white.    The people are advocating that we send weapons to Ukraine, the defensive weapons. Would any of these weapons be under, do we see any of these weapons becoming part of the arsenal of that part of the Ukrainian army that is financed, which I believe a third of the Ukrainian army now that is in conflict is financed by an oligarch, a private citizen who happens to be a multi-billionaire.    Ambassador Nuland. First of all, Congressman, thank you. I will respectfully take issue with some of the facts that you presented here because----</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you very much, Mr. Chairman. I would just say I have heard my friend from California. I have got to say the logic of the Ukrainian Government made bad decisions and therefore Russia had to respond is a pretty chilling message to others in Europe, including the Baltics and former Soviet satellite states. Sovereign nations get to make decisions, even decisions that may be unpopular in the Kremlin. And they can do so without the fear of being invaded and their territory annexed illegally, and I would hope that all of us would keep that in mind.    Madam Secretary, Minsk, the Minsk agreement. Does the Minsk agreement include interalia the de-occupation and de-annexation, illegal annexation of the Crimea?    Ambassador Nuland. Congressman, it does not. It only addresses eastern Ukraine. So the problem in Crimea will continue.</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you, Mr. Chairman. Thank you so much for being here today, Ambassador. To date, the sanctions that have been imposed on Russia have had really little impact on Putin's decision making. The administration has stated that additional sanctions are being considered, but without the commitment of some our allies, some of our European allies to enforce those sanctions with us or impose sanctions as a body, the likelihood of those sanctions having much effect are not real great.    Are there other sanctions that the administration is considering and do you believe that it will impact Putin's decision making in the near term? You stated in your opening comments that what has really impacted him is the price of oil and that it has really brought their economy to their knees.    So I am wondering if maybe it is time also for us to consider our policy in selling natural gas to our European allies. The process just hasn't moved very quickly. And one of the reasons I know that Germany has been so reticent to allow us to sell arms or provide arms to the Ukrainians is because of their heavy reliance on natural gas from Russia. Same thing has been true on support of sanctions. Isn't it time for us to just really pull out the stops and start selling LNG to our allies in Europe?    Ambassador Nuland. Thank you, Congressman. Well, as you know most U.S. LNG now goes to Asia because the price is higher. Under the Transatlantic Trade and Investment Partnership, if we have a deal between the 28 Europeans and the United States, then they would go to the top of the queue in terms of acquiring LNG. But it is a fair point whether we could or should do more.    With regard to sanctions, we have not yet changed his decision making decisively but we are having a profound effect on the Russian economy and we do think it is the trifecta of sanctions, low oil prices and 15-plus years of economic mismanagement in Russia. I can go through some of the statistics but I think you know them. Foreign currency reserves down $130 billion just over the last year. Credit at junk, inflation running 15 percent, and 40 percent in food prices.    So he is--Kremlin policy is under stress here which is why it is important to keep these sanctions in place and to consider deepening them. We are, as I said, working now with the Europeans on what more we would do sectorally if we do not see Minsk implemented, if we do not have an end to the ceasefire violations, if we do not have a heavy weapons pullback, on and on. But also even deeper sanctions if we have a further land grab, and we are, as I said, watching these at-risk villages on the road to Mariupol, et cetera, now. And our sanctions team is in Europe this week.</t>
   </si>
   <si>
@@ -277,9 +253,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Secretary, how many Russian soldiers are in Ukraine today?    Ambassador Nuland. Congressman, I am not in a position to give you a definitive number in this unclassified setting. You have seen Ben Hodges make a calculation from U.S. Army Europe. I would say it is in the thousands and thousands. I am sorry.    Let me also, just while I have you here, say that what we can say in this unclassified setting is that since December, Russia has transferred hundreds of pieces of military equipment including tanks, armored vehicles, rocket systems, heavy artillery. The Russian military has its own robust command structure in eastern Ukraine ranging from general officers to junior officers. As the President said not too long ago, they are funding this war. They are fueling it. They are commanding and controlling it.</t>
   </si>
   <si>
@@ -307,9 +280,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    Madam Ambassador, you mentioned earlier the body bags, the boys going back to Russia. It had to be tough on them. Do you know what the body bag count, the numbers of soldiers they are losing?    Ambassador Nuland. It is not possible, Congressman, to have a final count because of what Russia has done to mask these numbers. As you know they have criminalized discussion of it inside Russia. They have threatened mothers and wives and family members with pensions.</t>
   </si>
   <si>
@@ -376,9 +346,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. And thank you, Ambassador Nuland, for your testimony. I want to begin by also recognizing the tragic murder of Russian freedom fighter Boris Nemtsov who was brutally murdered in the streets of Moscow last weekend to of course urge our Government to do anything it can to ensure the perpetrators of this horrific crime are brought to justice. And I know many in this country are sending their thoughts and prayers to his family and to his friends and his colleagues. Unfortunately these so-called tragic events are quite common for those who dare to criticize Mr. Putin and his cronies, and I think it is important that we acknowledge the extraordinary efforts of this freedom fighter.    I thank you for your testimony, and I want to just focus on the corruption efforts that are underway. As you well know, Ukraine has historically had the distinction of being, or dubious distinction of being one of the most corrupt countries in the world, and I wonder if you would speak to how the new government in Kyiv is addressing this problem.    Are their reforms on pace? Are they going far enough? What are we doing to support those efforts? And are we seeing the tough decisions that need to be made and the kind of prosecutions and firings and the development of an independent judiciary to help advance the anti-corruption efforts that was a source of so much of what happened at the Maidan? And I just wondered if you would speak to some of those issues.    Ambassador Nuland. Thank you, Congressman. Corruption has been a country killer for Ukraine. It has also been an opening for malign influence from the outside in Ukraine's business. So not only because Ukraine's own citizens demand it, but because the democratic health of the country demands it, this has been a major source of focus of collaboration within the Ukrainian Government. As I said at the outset, they have just over the last 3 months passed an enormous amount of legislation, much of it designed to tackle corruption. Just to name a few things, a new anti-corruption strategy; a new public procurement system; the creation of an anti-corruption bureau and national agency for prevention of corruption; strengthened anti-money laundering regulations; disclosure of public officials' domestic and overseas assets for the first time; partial judicial reform including of the prosecutor general, more to come.    The U.S. is providing some $38 million in the assistance money that you have given us for that purpose. We have advisers and trainers in many of these entities. We are also supporting civil society for oversight and reform. Other new positive developments that go to the corruption and past dirty money practices, they are standing up a new patrol police. The police as you know have historically been subject to bribery. The new prosecutor general, Viktor Pshonka, has issued arrest warrants, new arrest warrants for some of the corrupt ex-officials.    There is a new business ombudsman appointed. They have slashed the corrupt energy subsidy. They have cut payroll taxes to reduce incentives for unreported wages; eliminated eight regulatory agencies and consolidated them into one; increased transparency of state-owned companies; made banking recapitalization more transparent. A lot of this is legislation on the books. We now have to see it implemented. We have to see oligarchs and everybody pay their taxes, be immune from special and sweetheart deals. We will watch like a hawk. The Ukrainian people will watch like a hawk. I think the parties will be judged by this in local elections in October. But Ukraine is on the path. They have to stick to it now.</t>
   </si>
   <si>
@@ -394,9 +361,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thanks, Mr. Chairman.    Ambassador, great to see you. Please don't take any of the comments personally, but as an American, quite honestly I am disappointed and disgusted with the ineffectual and pathetic response from this administration regarding this circumstance in Ukraine.    And I am just wondering, to start out, does the administration agree--because we have heard in other forums about grievances, legitimate grievances. So does the administration agree with the justification from Putin regarding the protection of ethnic Russians in any way, shape or form?    Ambassador Nuland. There is nothing that justifies the kind of violence that we have seen Russia unleash in eastern Ukraine or in Crimea.</t>
   </si>
   <si>
@@ -433,9 +397,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair, and I was on that trip with you and Mr. Engel when we went to Ukraine last year.    Thank you for your testimony. I want to say that I feel anxiety when I hear some of my colleagues with their unflattering remarks and I will tell you why. I have three questions. When we were in Ukraine we heard--I am going to follow up Mr. Cicilline's question because he was with us. We heard time and time again how the corruption of the Ukrainian Government undermined the government, created an environment which I think you alluded to allowed Russia's aggression to proceed, but it was not just the laws it was cultural, and so I would like you to, if you could, expound.    The number one is, first of all, would you have even considered giving weapons to the previous government, Yanukovych, would you have considered that? And is the culture or the corruption that was in Ukraine which you are waiting to see if the reforms take place, how does that affect whether or not you are willing to turn arms over now?    That is question number one.    Number two, could you tell me the sanctions on Russia, what are the implications relative to the issues that we are facing in Syria and Iran? Have there been any implications? And number three, if you can get to it, can you tell us in your opinion what are the implications on our allies and relative to the Budapest Agreement if we do not resist Russia's aggression?    Ambassador Nuland. Well, the last one is a big one, so let me just quickly go through the first ones. Our security relationship with Ukraine has gone through ups and downs after independence in '91 partly related to the quality of governance at the top. In recent years under the Yanukovych regime it was severely constrained not only because of our concerns about the military but also because of our concerns about his human rights record including with regard to Yulia Tymoshenko. So we were doing very little.    With regard to our current cooperation, we are subject to Leahy standards and appropriate vetting of units. One of the major lines of effort that we have going in our advisory effort with the Ukrainian military is to root out corruption and infiltration of that military. So that is something that we work on very hard.    We have, as Secretary Kerry has made clear when he was up here and at every time he is before you, worked hard to continue to be able to work with Russia on global interests where our interests align. So that takes you to the work we do together in the P5+1 on Iran. That cooperation continues not as a favor by Moscow to the United States, but because they too have no interest in a nuclear-armed Iran. Similarly our work on Afghanistan, our work to try to come to terms with the violence in Syria, which has not been completely successful, but those conversations continue. So we judge that they do it out of their own interests--not as a favor to us.    With regard to the threat to allies, we didn't talk today but we have in the past about the intensive effort underway in the NATO space to ensure that the Article 5 deterrent is absolutely visible--land, sea and air. We have young Americans as you know in the three Baltic states and Poland and soon in Bulgaria and Romania showing presence. We are working on new headquarters elements and other ways to be able to reinforce them very quickly if we need to. But, obviously, if the violence sweeps across Ukraine, if Ukraine breaks apart, falls, et cetera, I personally don't think that the effort to gobble countries will end there.</t>
   </si>
   <si>
@@ -451,9 +412,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer [presiding]. Thank you, Mr. Chair.    Madam Secretary, you have already answered quite a few questions, but I want to run through something so you can clear this up for me. The Minsk agreement, you have referenced what Russia had agreed to implement. Could you please quickly tell me what did they agree to implement and what have they implemented since the agreement?    Ambassador Nuland. Thank you, Congressman. Well, first just to remind that the February 12th agreement was an implementing agreement on prior commitments made by both Russia and the separatists on September 5th and September 19th.</t>
   </si>
   <si>
@@ -487,9 +445,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. I just want to thank you for your work. I can only speak personally, but the briefings that I have had including classified briefings with you and with the Ambassador Pyatt have been extraordinary. The communications are great. I want to thank you for that.    I also, I am going to deviate from my question, because at least once in this hearing I think we have to put this perspective in because it is reality. So many of the questions have been unilateral. It is the U.S. It is Russia. It is U.S. The reality is that is not where our strength is. The center of gravity in all of this, I think, from a military perspective was described by General Breedlove when he said our unity of effort with the Europeans is that strength, and it is what Putin didn't bank on. So I am going to give you the opportunity to discuss how important the coalition is to the success of Ukraine.    It is my feeling that without that unity with the U.S. that we are not going to be strong in our response and Ukraine won't have the opportunity to move forward itself. So could you comment on that? Because it is lost somewhere in today's hearing.    Ambassador Nuland. Well, thank you for that, Congressman. I think I said earlier in the hearing that we in the European Bureau spend almost as much time working with Europeans on Ukraine as we do working with Ukrainians on Ukraine, because this unity has been so essential and because that unity is constantly being tested and probed by the Kremlin. Because if they can split us, obviously that is their best line to imperil Ukraine.    So first and foremost, on the economic side where it has been a combination of our strong transatlantic support for the IFIs, our strong transatlantic contributions, both U.S. and European, that have made the $17.5-billion package that we have on offer for Ukraine possible now. Without that it wouldn't have been.    In the four to five rounds of sanctions that we have done, if the U.S. had done this unilaterally we would have had a situation where European companies could have just come in and backfilled. If we had not matched what Europe was willing to do, the opposite would have been true or you could have seen efforts to drive a wedge between us. We do believe that, particularly in September and December, the Kremlin underestimated both our unity and our ability to work together. It is not always as quick as we would like because we have 29 countries to coordinate, 34 if you include our other allies in NATO, but it does make us really strong in defense of Ukraine.</t>
   </si>
   <si>
@@ -505,9 +460,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman. Thank you, Ranking Member. And thank you, Ambassador, for being here today. I have a question. The Journal has been reporting on a $5.7-billion deal this week between the German utility RWE AG and an energy investment fund led by the Russian billionaire Mikhail Fridman in which the fund purchased RWE's oil and gas arm DEA.    This deal gives Mr. Fridman the assets to launch a new oil company with assets throughout Europe. DEA produces about 100,000 barrels of oil per day. This is disconcerting for two reasons. One it is the sort of business that we are supposed to be deterring, and two, it provides for Russian control over significant European energy supplies. Mr. Fridman is not currently subject to U.S. sanctions despite his close ties with the Kremlin. Do you know whether he is or he might be a potential target for sanctions?    Ambassador Nuland. Thank you for that. I am going to get back to you on some of the details, but just to make absolutely clear that U.S. and European sanctions have targeted Russian public and government assets and entities. Mr. Fridman runs one of the few remaining private companies in Russia, and as such has had his own strong views as a private citizen about appropriate Russian-European relations.    But let me get back to you on how we have evaluated that particular deal. But it is not a Russian Government deal. It does not deepen the Russian Government's ties into the European energy net or Europeans' dependence on the Russian Government.</t>
   </si>
   <si>
@@ -521,9 +473,6 @@
   </si>
   <si>
     <t>400652</t>
-  </si>
-  <si>
-    <t>Ted Poe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank the chairman.    Thank you, Ambassador, for being here. Like a lot of folks, including you, I am concerned about Russian aggression. The Russians go into Georgia in 2008, they take one third of that country away from them, and the Russian tanks are still in that third and they are not going to leave. The West pontificated and said that that was bad, and meanwhile Putin is still there. And Russia goes into Crimea, takes over Crimea. Now they are in Eastern Europe. I believe when they successfully take over eastern Ukraine they will keep moving, maybe to the Baltics.    Last year when you were here, May 8th, to be exact, I asked you the purpose of U.S. sanctions. And the question, and I have the transcript here if you want to see it, was is the purpose of our sanctions to stop the Russians or is the purpose of our sanctions to make the Russians leave Crimea? And you answered that the purpose of our sanctions was to make the Russians leave Crimea. Is that still the purpose of sanctions against Russia regarding Crimea? To make them leave?    Ambassador Nuland. Yes, sir. We want Crimea restored to Ukraine. We have designated sanctions vis-a-vis Crimea which as you know we deepened significantly in December, essentially denying U.S. companies the ability to invest in Crimea. Our European partners have done the same. We talked a little bit earlier in the hearing about the impact that that has had in Crimea and we will continue to keep those in place unless and until----</t>
@@ -964,11 +913,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -988,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1016,11 +961,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1042,11 +985,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1068,11 +1009,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1094,11 +1033,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1120,11 +1057,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1146,11 +1081,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1172,11 +1105,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1198,11 +1129,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1224,11 +1153,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1248,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1274,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1300,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1326,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1352,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1378,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1404,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1430,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1456,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1482,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1508,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1534,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1560,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1586,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1612,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1640,11 +1537,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1666,11 +1561,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1690,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1716,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1744,11 +1633,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1768,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1794,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1820,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1846,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1872,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1898,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>53</v>
-      </c>
-      <c r="H38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1924,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1952,11 +1825,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1978,11 +1849,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2004,11 +1873,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2028,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2054,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2080,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2106,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2132,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2158,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
         <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2184,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2210,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2236,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2262,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2288,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2314,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2342,11 +2185,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2366,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2394,11 +2233,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2418,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2444,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2472,11 +2305,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2496,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2522,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2548,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2574,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2600,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2626,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2652,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2680,11 +2497,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2704,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2730,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2756,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2782,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2808,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2834,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2860,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2886,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2912,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
-      <c r="H77" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2938,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>97</v>
-      </c>
-      <c r="H78" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2964,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2990,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3016,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3042,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
-      </c>
-      <c r="G82" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3068,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3094,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3120,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3146,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3172,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3198,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
-      </c>
-      <c r="G88" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3226,11 +3001,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3250,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" t="s">
-        <v>120</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3276,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
-      </c>
-      <c r="G91" t="s">
-        <v>120</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3302,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
-      </c>
-      <c r="G92" t="s">
-        <v>120</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3330,11 +3097,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3354,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>125</v>
-      </c>
-      <c r="G94" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3380,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3406,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3432,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3458,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3484,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3510,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3536,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3562,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3588,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>125</v>
-      </c>
-      <c r="G103" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3616,11 +3361,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3640,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
-      </c>
-      <c r="G105" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3666,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
-      </c>
-      <c r="G106" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3692,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
-      </c>
-      <c r="G107" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3720,11 +3457,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3744,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>144</v>
-      </c>
-      <c r="G109" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3770,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>144</v>
-      </c>
-      <c r="G110" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3796,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>144</v>
-      </c>
-      <c r="G111" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3822,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
-      </c>
-      <c r="G112" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3848,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>144</v>
-      </c>
-      <c r="G113" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3874,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
-      </c>
-      <c r="G114" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3900,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
-      </c>
-      <c r="G115" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3926,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
-      </c>
-      <c r="G116" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3952,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
-      </c>
-      <c r="G117" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3978,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>144</v>
-      </c>
-      <c r="G118" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4004,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>156</v>
-      </c>
-      <c r="G119" t="s">
-        <v>157</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4030,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>156</v>
-      </c>
-      <c r="G120" t="s">
-        <v>157</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4056,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>156</v>
-      </c>
-      <c r="G121" t="s">
-        <v>157</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4082,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>144</v>
-      </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4108,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>162</v>
-      </c>
-      <c r="G123" t="s">
-        <v>163</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4134,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>162</v>
-      </c>
-      <c r="G124" t="s">
-        <v>163</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4160,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>162</v>
-      </c>
-      <c r="G125" t="s">
-        <v>163</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4186,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4212,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>168</v>
-      </c>
-      <c r="G127" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4238,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>168</v>
-      </c>
-      <c r="G128" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4264,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>168</v>
-      </c>
-      <c r="G129" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4290,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>168</v>
-      </c>
-      <c r="G130" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4316,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>168</v>
-      </c>
-      <c r="G131" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4342,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>168</v>
-      </c>
-      <c r="G132" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4368,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>168</v>
-      </c>
-      <c r="G133" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4394,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>168</v>
-      </c>
-      <c r="G134" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4420,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
-      </c>
-      <c r="G135" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4446,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>168</v>
-      </c>
-      <c r="G136" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4472,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
-      </c>
-      <c r="G137" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4498,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>168</v>
-      </c>
-      <c r="G138" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4524,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
-      </c>
-      <c r="G139" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4550,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>144</v>
-      </c>
-      <c r="G140" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93669.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93669.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. Ambassador Nuland, welcome.    This hearing will come to order, and our topic today is     ``Ukraine Under Siege.'' And Ukraine is under siege by Russia at this moment, and unfortunately, the response to Russia's aggression by the administration has been quite tepid.    A year ago, Russia invaded and seized Crimea, and some thought that Vladimir Putin would stop there. Not so. And last April, Ranking Member Eliot Engel and I led a delegation to Ukraine. We traveled to the Russian speaking-east. I think we had eight members on that delegation. We went into Dnepropetrovsk, which is bordering Luhansk and Donetsk.    And I have to share with the members here that the many Ukrainians that--and these are Russian speaking Ukrainians in the far east that Mr. Engel and I met with, wanted to be Ukrainians. They did not want to be separatists.    We spoke to the women's groups there, to the lawyers' groups, civil society, the Jewish group, various ethnic minorities, the governor, the mayor. At Passover, Mr. Engel spoke at the largest Jewish community center in Eastern Europe, the largest synagogue.    And I can just share with the members here what--I'll attest to the attitude was--one of the thoughts shared with us is it seems that Russia has recruited every skinhead and every malcontent in the Russian speaking world and are trying to bring them into the east. And they said we are holding them in a brig here until hostilities are over, because we can spot them, but they are coming in from Russia in order to try to overthrow our Government.    And so we have seen this situation where Moscow moved from annexing Crimea to aggressively supporting militant separatists in eastern Ukraine and indeed bringing Russian troops into the country. And Russia may now try to secure a land bridge to Crimea. That is the great concern here. That was the worry we heard that they would further expand this conflict; that they might try to seize the strategic port of Mariupol.    Now when we talked to the U.N. agencies on the ground, they count over 6,000 civilians who have been killed in this conflict. There are 1.7 million Ukrainians that have now been made refugees. To date, the actions taken by the U.S. and our EU allies, including economic sanctions and aid and diplomatic isolation, have not checked Putin. Indeed over the past year he has become bolder, even menacing NATO countries as he seeks to divide the alliance.    The Obama administration and our European allies have put hope in diplomatic and ceasefire arrangements, but it is not working. Last week, I met with the First Deputy Speaker of the Ukrainian Parliament who said that his country urgently needs anti-tank weapons such as the Javelin. He needs radar to pinpoint enemy fire in order to do the counter-battery work to suppress that artillery, and he needs communications equipment to overcome Russian jamming.    Ukrainian forces cannot match the advanced equipment that Russia is pouring into eastern Ukraine. And by the way, when you see tanks come into eastern Ukraine those are not Ukrainians in those tanks. Those are Russians. There is no shortage of the will to fight, only a shortage of defensive weapons.    But at the committee's hearing last week, Secretary Kerry said that President Obama has still not made a decision on whether to send defensive lethal military aid to Ukraine. Six months after President Poroshenko told a joint session of Congress in his words, ``One cannot win the war with blankets,'' it was not surprising, but still discouraging, to see him have to shop for defensive weapons, and unfortunately it has been very, very difficult for Ukraine to find any defensive weapons.    And I was just as discouraged to read in this weekend's Wall Street Journal that U.S. intelligence sharing with Ukraine keeps Ukraine in the dark. Satellite images are delayed and obscured making them less useful. Frustrated, Ukraine is approaching other countries like Canada to share such information. This isn't U.S. leadership. Moscow is also undermining Ukraine's economy. Today Russia is using its natural gas and other energy sources for political coercion and to generate economic chaos in the country.    Ukraine is facing an economic precipice. It desperately needs help. Meanwhile, Russia is winning the battle on the airwaves and they are doing it by broadcasting out conspiracy theories and propaganda. Anyone who has monitored what has been up on the air is well aware that this propaganda is offensive, is aimed at sowing confusion and undermining opposition to its aggression in Ukraine and elsewhere.    But we are barely in the game of countering this with the facts. As I told the Secretary last week, I would like to see more administration support for the effort Mr. Engel and I have undertaken to reform our international broadcasting. The Broadcasting Board of Governors is broken. If we can't begin to change minds, then the struggle over Ukraine today will become a generational struggle for the future of Eastern Europe. Ukraine's fate has security implications for well beyond its borders.    Now we passed this bill into the Senate last year. We were not able to bring it up and get it out of the Senate. We did not have the administration's support for it. But we have vetted this and have a great deal of support in this institution for getting back up on the air with Radio Free Europe, Radio Liberty type broadcasting that we did years ago to great effect with a message that will get the truth effectively into Eastern Europe and into Russia. It is time for strong and unwavering support of Ukraine. It is time for this right now, and many of these committee members on this committee, I believe, are concerned U.S. policy toward Ukraine may soon become, ``too little, too late.''    And I now turn to the ranking member for opening remarks that Mr. Engel of New York might wish to make.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman, and thank you for calling this very timely and important hearing. At the outset I want to acknowledge the Ukrainian Days participants who are in the audience today.    And Ambassador Nuland, welcome back. We thank you for testifying today. We thank you for your decades of service. And on a personal basis, let me also say that I have had to pleasure of working with you and I am a fan of your hard work, knowledge and tenacity. Thank you for all you do.    In Ukraine, the events of the past year and the ongoing Russian aggression threatens the security and stability of the entire region and undermines decades of American commitment to and investment in a Europe that is whole, free and at peace. In fact this is a threat to the whole international order.    So today we face grave questions. What can and should be done, and who should contribute to solving this problem? The United States is providing substantial assistance to the Government of Ukraine including billions of dollars in loan guarantees and non-lethal military aid. We have also imposed significant sanctions on Russia. We have sanctioned officials supporting Russia's aggression in Ukraine and targeted key sectors of the Russian economy. And we have seen results. Russia's economy has been taking on water, and this has only been magnified by the recent dip in oil prices.    These policies are good, but only up to a point. They don't go far enough, in my opinion. Russia's military gains in Ukraine have slowed, but Putin continues to grab land along the line of contact in violation of the Minsk ceasefire agreement, which mandates that Russian supported rebels pull back their forces.    The government in Kyiv is committed to reform, but leaders there struggle every day to preserve Ukrainian sovereignty. And while our financial assistance has kept Ukraine's economy afloat, they still confront a bleak economic outlook and the risks of a financial meltdown loom large.    Now when Ukraine gave up its nuclear arsenal in 1994, the United States made a commitment to help protect Ukrainian territorial integrity. That commitment was also made by Russia, U.K., China, other countries as well, but now our commitment is being tested. Let me also say that I think NATO made a grave mistake in 2008 when it refused to admit Ukraine and Georgia into NATO. I know that Germany and France resisted. The United States tried to push it. I didn't work. And I think we are paying the price today. I don't think that Putin would have been as aggressive if Ukraine was a part of NATO.    So last month I met with President Poroshenko. Met with him in Europe. His request was simple. Provide Ukraine with key weapons and military technology to defend itself. Specifically, Ukraine needs light anti-tank missiles to protect itself against rebels attacking with heavy, Russian supplied armor, not to evict the thousands of Russian troops inside Ukrainian borders. Ukraine needs longer range counter-battery radars to pinpoint attacking artillery and tanks, not to win a protracted war against Russia's military. And Ukraine needs better communications technology to deal with Russian efforts to jam their signals, not to advance on Moscow.    I was laughing when at that conference in Munich, Madam Secretary, you and I both attended, to hear the Russian Foreign Minister denying that Russian troops were in Ukraine, saying it was just Ukrainian rebels. Lies, lies and more lies.    I have spoken on the House floor calling on our Government to supply defensive weapons to Ukraine.    So Mr. Chairman, and I know you agree with me, Ukraine is not going to win a war against Russia, but it can impose a greater cost on Vladimir Putin's aggression and slow Russia's advances. And it has a chance to remain on its feet when all is said and done if it can impose a greater cost on Putin's aggression and slow Russia's advances.    Yet for nearly a year, the administration along with the vast majority of our European allies has resisted providing such assistance. Now to be sure, there are risks involved but there are also risks in allowing Putin to continue his aggression in Ukraine and to threaten other peaceful neighbors on Russia's periphery. And if Russia's aggressive pressure on the West reach the frontiers of our NATO allies, the dangers to Europe increase tremendously; the dangers to the NATO alliance increase tremendously.    In December, Congress unanimously passed the Ukraine Freedom Support Act. This legislation authorized the provision of lethal defensive aid. I was proud to lead House efforts to pass this legislation and happy that President Obama signed it. But I have been disappointed that the administration has not used any of the tools provided in this law.    It is time to ask the hard question. Are we willing to stand up to Vladimir Putin's aggression before he kills more people, does more economic damage, further destabilizes Europe and threatens our NATO allies? Or are the risks just so great that we will simply cut our losses? As time passes, our options grow fewer and less effective. That is why I am announcing today my plan to introduce new legislation. It will offer Ukraine greater assistance on a variety of fronts. It will dial up the pressure on Vladimir Putin for his reckless, destructive and destabilizing policies, and it will send a clear message that the United States stands with the people of Ukraine against Russian aggression. I look forward to working with Chairman Royce and other colleagues as we move ahead with this effort.    And finally, let me just add that our European allies need to confront these same questions of strategy and political will. In my view, wealthy countries such as Germany, France and others have a lot more skin in the game economically and strategically. They should be doing more to assist Ukraine on the economic front as they seem even less willing than we are to provide needed military assistance. They should double down, dig deep, and ensure Ukraine does not endure a financial meltdown. This would be a win-win, keeping Ukraine solvent and preventing an even greater catastrophe on the EU's borders. The people of Ukraine are watching, the government in Kyiv is watching, and the whole world is watching. We cannot sit idly by and allow Putin to continue his aggression.    So again Ambassador Nuland, thank you for appearing here today and I look forward to your testimony.</t>
   </si>
   <si>
@@ -103,6 +118,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen [presiding]. Thank you very much, Mr. Engel. I will recognize myself.    And Madam Ambassador, many members of our committee will continue to hammer the Obama administration on this damaging and unnecessary and senseless delay in providing the lethal aid that Ukraine so desperately needs, so you will continue to hear this line of questioning. Because despite this fragile ceasefire, Ukraine continues to suffer casualties at the hands of separatists backed by Moscow, and the Ukraine Government fears that Putin's thugs are simply using this opportunity, this ceasefire, to regroup their forces in preparation of yet another offensive.    Ukraine is in such tragic need of lethal aid from the U.S., and as you have heard both the head of our nation's intelligence community and the head of our Defense Department agree. Yet just last week Secretary Kerry testified before our committee as you have heard from the chairman and the ranking member that no decision on lethal aid has been made yet. And so we ask and continue to ask what is the hold up? Our allies need our assistance now. Enough with the excuses.    So in what part of the interagency process is the decision on lethal aid for Ukraine currently stalled? Does the State Department believe that the United States should send lethal aid to Ukraine, yes or no? And you said that the President has not made a decision yet, but you didn't say what you believe and what the State Department believes, and I would like to hear that.    Also the Magnitsky Act and that list, the tragic murder a few days ago of the Russian opposition leader came just days as we know as he was about to publish evidence of the Russian military in Ukraine. Has his murder been sanctioned as human rights violators under the Magnitsky Act? And can you give us an update on the progress or lack thereof of adding names on that Magnitsky Act so we can sanction those violators?    And also Secretary Kerry has said that the Russian Foreign Minister lied to his face about Russian involvement in Ukraine. What is the extent of Russian involvement? Are Russian soldiers in Ukraine? Are we prepared to say that participating in the conflict?    And on the 123 Agreement, and I will ask you to give me written responses to these because there is a series of questions. I have been advocating for the administration to withdraw from the U.S.-Russia nuclear cooperation agreement, the 123 Agreement, to prevent the potential future use of U.S. nuclear technology and assistance against our own interests. And given Putin's continued aggression, will the administration suspend the Russia 123 Agreement?    And lastly, I have been critical of how the administration plans on using funds to promote democracy and human rights in Russia especially after 2012 when Putin kicked out USAID from Russia. Please update the committee on what the administration plans to do with that money that has been left over from the U.S.-Russia investment fund.    Ambassador Nuland. That is a lot, Congresswoman. Let me go through them quickly. And thank you for letting me take the 123 question in writing because I want to make sure our agencies get it right for you.</t>
   </si>
   <si>
@@ -115,6 +136,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Ambassador, one thing I noticed about your opening statement was your lavish praise for the Ukrainian Parliament passing so much substantive legislation and you compared it to Congress.    Ambassador Nuland. I didn't compare it----</t>
   </si>
   <si>
@@ -148,6 +175,12 @@
     <t>400271</t>
   </si>
   <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman. And let me just say for me this is very complicated. I don't think that there is one solution to it, whether it is giving weapons if that is going to be the be-all and end-all that is going to resolve this problem or not. I am not even sure where I am at on that.    Let me just ask this question. I just want to ask one. I know we have been a lot on weapons. Because I think by now everybody is clear I am a multilateralist. I think that the world is different. We can't just do things on our own. I think it is leadership when you are bringing countries together and you have it in the work and stick together. I think that is leadership. But it is difficult. It is easy to do things by yourself. It is harder to do things in conjunction with others, and that is real leadership in my estimation.    Now where is, and I am not sure even on the weapons because like I say I am not sure where I am at because you don't like to see this, but have we had dialogue and where is our EU partners on giving defensive weapons to Ukraine? And in my mind I am still unclear what is defensive weapons, what are offensive weapons, whether or not those weapons, if you are in battle everyone says that Ukraine cannot beat Russia. Can Russia take those weapons away from the Ukrainians? But where is our EU partners on the issue of arming Ukraine?    Ambassador Nuland. Thank you, Congressman, and thank you for your support for Europe as the new ranking member of a subcommittee.    I am multilateralist, too. I would say with regard to managing our response on Ukraine, we spend almost as much time working with NATO and EU partners as we do working with Ukrainians, because that unity is so important and it makes it impossible for the Kremlin to divide us.    All 28 allies have provided, NATO allies have provided, some form of security assistance to Ukraine. That was one of the commitments we made to each other at Wales. It can take the form of training. It can take the form of support for the medical needs of the military, those kinds of things.    The U.K. and Poland have just announced, as you probably saw in the press, that they will start training Ukrainians along the lines of the notifications that we have sent up to you all. Where the divide happens and where the debate is happening, and there are allies and partners on both sides of this debate as there are folks in Washington, is on the question of the lethality of the weapons. So non-lethal defensive weapons everybody has been supportive of what we have done, what this committee has funded.    On the question of lethal, I think the debate is very similar with different allies on different sides. The President obviously has discussed this with all of his partners, most notably with Chancellor Merkel when she was here. The Vice President had a chance to talk to a lot of Europeans at Munich as did Secretary Kerry. So that conversation continues.</t>
   </si>
   <si>
@@ -160,6 +193,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. Let me agree with Mr. Meeks that this is a very complicated issue and perhaps a lot more complicated than the black and white alternatives that we have been hearing about today.    At one point we have heard that the Ukraine desperately needs economic help, and I would hope that our goal is to do what is right by Ukraine and bring peace to Ukraine and not our goal being to basically defeat and humiliate Russia for actions that it has taken. Because if that is our goal, the people of Ukraine will continue to suffer and suffer and suffer.    Back to the Ukraine desperately needs economic help, this whole incident in history started when the government of what you call the rotten regime that preceded the current Government of Ukraine went to our European allies to ask for help that it desperately needed for its economy. And the deal that was offered by our European allies was not sufficient, and in fact was much less than what the Russians offered them instead.    And when that deal was taken by the rotten regime that you have mentioned, all of a sudden that is when it became so rotten that we no longer, or the people could no longer put up with it. The pivotal moment was when it accepted the deal that was offered by Russia to help them in their desperate economic situation which our European allies were not willing to do. That ignited this situation. That is what turned policies type of situations, and perhaps the overturn of a rotten government through an electoral process into instead the overturn of the rotten regime by violent demonstrations and non-democratic means of overthrowing that regime. Two years later they could have kicked that Yanukovych out with a free election. They didn't wait.    Let me ask you about--okay, so let us hope that what we are doing now is aimed at trying to end the conflict that started in that more complicated way than black and white.    The people are advocating that we send weapons to Ukraine, the defensive weapons. Would any of these weapons be under, do we see any of these weapons becoming part of the arsenal of that part of the Ukrainian army that is financed, which I believe a third of the Ukrainian army now that is in conflict is financed by an oligarch, a private citizen who happens to be a multi-billionaire.    Ambassador Nuland. First of all, Congressman, thank you. I will respectfully take issue with some of the facts that you presented here because----</t>
   </si>
   <si>
@@ -193,6 +232,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you very much, Mr. Chairman. I would just say I have heard my friend from California. I have got to say the logic of the Ukrainian Government made bad decisions and therefore Russia had to respond is a pretty chilling message to others in Europe, including the Baltics and former Soviet satellite states. Sovereign nations get to make decisions, even decisions that may be unpopular in the Kremlin. And they can do so without the fear of being invaded and their territory annexed illegally, and I would hope that all of us would keep that in mind.    Madam Secretary, Minsk, the Minsk agreement. Does the Minsk agreement include interalia the de-occupation and de-annexation, illegal annexation of the Crimea?    Ambassador Nuland. Congressman, it does not. It only addresses eastern Ukraine. So the problem in Crimea will continue.</t>
   </si>
   <si>
@@ -241,6 +286,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you, Mr. Chairman. Thank you so much for being here today, Ambassador. To date, the sanctions that have been imposed on Russia have had really little impact on Putin's decision making. The administration has stated that additional sanctions are being considered, but without the commitment of some our allies, some of our European allies to enforce those sanctions with us or impose sanctions as a body, the likelihood of those sanctions having much effect are not real great.    Are there other sanctions that the administration is considering and do you believe that it will impact Putin's decision making in the near term? You stated in your opening comments that what has really impacted him is the price of oil and that it has really brought their economy to their knees.    So I am wondering if maybe it is time also for us to consider our policy in selling natural gas to our European allies. The process just hasn't moved very quickly. And one of the reasons I know that Germany has been so reticent to allow us to sell arms or provide arms to the Ukrainians is because of their heavy reliance on natural gas from Russia. Same thing has been true on support of sanctions. Isn't it time for us to just really pull out the stops and start selling LNG to our allies in Europe?    Ambassador Nuland. Thank you, Congressman. Well, as you know most U.S. LNG now goes to Asia because the price is higher. Under the Transatlantic Trade and Investment Partnership, if we have a deal between the 28 Europeans and the United States, then they would go to the top of the queue in terms of acquiring LNG. But it is a fair point whether we could or should do more.    With regard to sanctions, we have not yet changed his decision making decisively but we are having a profound effect on the Russian economy and we do think it is the trifecta of sanctions, low oil prices and 15-plus years of economic mismanagement in Russia. I can go through some of the statistics but I think you know them. Foreign currency reserves down $130 billion just over the last year. Credit at junk, inflation running 15 percent, and 40 percent in food prices.    So he is--Kremlin policy is under stress here which is why it is important to keep these sanctions in place and to consider deepening them. We are, as I said, working now with the Europeans on what more we would do sectorally if we do not see Minsk implemented, if we do not have an end to the ceasefire violations, if we do not have a heavy weapons pullback, on and on. But also even deeper sanctions if we have a further land grab, and we are, as I said, watching these at-risk villages on the road to Mariupol, et cetera, now. And our sanctions team is in Europe this week.</t>
   </si>
   <si>
@@ -253,6 +304,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Secretary, how many Russian soldiers are in Ukraine today?    Ambassador Nuland. Congressman, I am not in a position to give you a definitive number in this unclassified setting. You have seen Ben Hodges make a calculation from U.S. Army Europe. I would say it is in the thousands and thousands. I am sorry.    Let me also, just while I have you here, say that what we can say in this unclassified setting is that since December, Russia has transferred hundreds of pieces of military equipment including tanks, armored vehicles, rocket systems, heavy artillery. The Russian military has its own robust command structure in eastern Ukraine ranging from general officers to junior officers. As the President said not too long ago, they are funding this war. They are fueling it. They are commanding and controlling it.</t>
   </si>
   <si>
@@ -280,6 +337,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    Madam Ambassador, you mentioned earlier the body bags, the boys going back to Russia. It had to be tough on them. Do you know what the body bag count, the numbers of soldiers they are losing?    Ambassador Nuland. It is not possible, Congressman, to have a final count because of what Russia has done to mask these numbers. As you know they have criminalized discussion of it inside Russia. They have threatened mothers and wives and family members with pensions.</t>
   </si>
   <si>
@@ -346,6 +409,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. And thank you, Ambassador Nuland, for your testimony. I want to begin by also recognizing the tragic murder of Russian freedom fighter Boris Nemtsov who was brutally murdered in the streets of Moscow last weekend to of course urge our Government to do anything it can to ensure the perpetrators of this horrific crime are brought to justice. And I know many in this country are sending their thoughts and prayers to his family and to his friends and his colleagues. Unfortunately these so-called tragic events are quite common for those who dare to criticize Mr. Putin and his cronies, and I think it is important that we acknowledge the extraordinary efforts of this freedom fighter.    I thank you for your testimony, and I want to just focus on the corruption efforts that are underway. As you well know, Ukraine has historically had the distinction of being, or dubious distinction of being one of the most corrupt countries in the world, and I wonder if you would speak to how the new government in Kyiv is addressing this problem.    Are their reforms on pace? Are they going far enough? What are we doing to support those efforts? And are we seeing the tough decisions that need to be made and the kind of prosecutions and firings and the development of an independent judiciary to help advance the anti-corruption efforts that was a source of so much of what happened at the Maidan? And I just wondered if you would speak to some of those issues.    Ambassador Nuland. Thank you, Congressman. Corruption has been a country killer for Ukraine. It has also been an opening for malign influence from the outside in Ukraine's business. So not only because Ukraine's own citizens demand it, but because the democratic health of the country demands it, this has been a major source of focus of collaboration within the Ukrainian Government. As I said at the outset, they have just over the last 3 months passed an enormous amount of legislation, much of it designed to tackle corruption. Just to name a few things, a new anti-corruption strategy; a new public procurement system; the creation of an anti-corruption bureau and national agency for prevention of corruption; strengthened anti-money laundering regulations; disclosure of public officials' domestic and overseas assets for the first time; partial judicial reform including of the prosecutor general, more to come.    The U.S. is providing some $38 million in the assistance money that you have given us for that purpose. We have advisers and trainers in many of these entities. We are also supporting civil society for oversight and reform. Other new positive developments that go to the corruption and past dirty money practices, they are standing up a new patrol police. The police as you know have historically been subject to bribery. The new prosecutor general, Viktor Pshonka, has issued arrest warrants, new arrest warrants for some of the corrupt ex-officials.    There is a new business ombudsman appointed. They have slashed the corrupt energy subsidy. They have cut payroll taxes to reduce incentives for unreported wages; eliminated eight regulatory agencies and consolidated them into one; increased transparency of state-owned companies; made banking recapitalization more transparent. A lot of this is legislation on the books. We now have to see it implemented. We have to see oligarchs and everybody pay their taxes, be immune from special and sweetheart deals. We will watch like a hawk. The Ukrainian people will watch like a hawk. I think the parties will be judged by this in local elections in October. But Ukraine is on the path. They have to stick to it now.</t>
   </si>
   <si>
@@ -361,6 +430,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thanks, Mr. Chairman.    Ambassador, great to see you. Please don't take any of the comments personally, but as an American, quite honestly I am disappointed and disgusted with the ineffectual and pathetic response from this administration regarding this circumstance in Ukraine.    And I am just wondering, to start out, does the administration agree--because we have heard in other forums about grievances, legitimate grievances. So does the administration agree with the justification from Putin regarding the protection of ethnic Russians in any way, shape or form?    Ambassador Nuland. There is nothing that justifies the kind of violence that we have seen Russia unleash in eastern Ukraine or in Crimea.</t>
   </si>
   <si>
@@ -397,6 +472,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair, and I was on that trip with you and Mr. Engel when we went to Ukraine last year.    Thank you for your testimony. I want to say that I feel anxiety when I hear some of my colleagues with their unflattering remarks and I will tell you why. I have three questions. When we were in Ukraine we heard--I am going to follow up Mr. Cicilline's question because he was with us. We heard time and time again how the corruption of the Ukrainian Government undermined the government, created an environment which I think you alluded to allowed Russia's aggression to proceed, but it was not just the laws it was cultural, and so I would like you to, if you could, expound.    The number one is, first of all, would you have even considered giving weapons to the previous government, Yanukovych, would you have considered that? And is the culture or the corruption that was in Ukraine which you are waiting to see if the reforms take place, how does that affect whether or not you are willing to turn arms over now?    That is question number one.    Number two, could you tell me the sanctions on Russia, what are the implications relative to the issues that we are facing in Syria and Iran? Have there been any implications? And number three, if you can get to it, can you tell us in your opinion what are the implications on our allies and relative to the Budapest Agreement if we do not resist Russia's aggression?    Ambassador Nuland. Well, the last one is a big one, so let me just quickly go through the first ones. Our security relationship with Ukraine has gone through ups and downs after independence in '91 partly related to the quality of governance at the top. In recent years under the Yanukovych regime it was severely constrained not only because of our concerns about the military but also because of our concerns about his human rights record including with regard to Yulia Tymoshenko. So we were doing very little.    With regard to our current cooperation, we are subject to Leahy standards and appropriate vetting of units. One of the major lines of effort that we have going in our advisory effort with the Ukrainian military is to root out corruption and infiltration of that military. So that is something that we work on very hard.    We have, as Secretary Kerry has made clear when he was up here and at every time he is before you, worked hard to continue to be able to work with Russia on global interests where our interests align. So that takes you to the work we do together in the P5+1 on Iran. That cooperation continues not as a favor by Moscow to the United States, but because they too have no interest in a nuclear-armed Iran. Similarly our work on Afghanistan, our work to try to come to terms with the violence in Syria, which has not been completely successful, but those conversations continue. So we judge that they do it out of their own interests--not as a favor to us.    With regard to the threat to allies, we didn't talk today but we have in the past about the intensive effort underway in the NATO space to ensure that the Article 5 deterrent is absolutely visible--land, sea and air. We have young Americans as you know in the three Baltic states and Poland and soon in Bulgaria and Romania showing presence. We are working on new headquarters elements and other ways to be able to reinforce them very quickly if we need to. But, obviously, if the violence sweeps across Ukraine, if Ukraine breaks apart, falls, et cetera, I personally don't think that the effort to gobble countries will end there.</t>
   </si>
   <si>
@@ -412,6 +493,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer [presiding]. Thank you, Mr. Chair.    Madam Secretary, you have already answered quite a few questions, but I want to run through something so you can clear this up for me. The Minsk agreement, you have referenced what Russia had agreed to implement. Could you please quickly tell me what did they agree to implement and what have they implemented since the agreement?    Ambassador Nuland. Thank you, Congressman. Well, first just to remind that the February 12th agreement was an implementing agreement on prior commitments made by both Russia and the separatists on September 5th and September 19th.</t>
   </si>
   <si>
@@ -445,6 +529,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. I just want to thank you for your work. I can only speak personally, but the briefings that I have had including classified briefings with you and with the Ambassador Pyatt have been extraordinary. The communications are great. I want to thank you for that.    I also, I am going to deviate from my question, because at least once in this hearing I think we have to put this perspective in because it is reality. So many of the questions have been unilateral. It is the U.S. It is Russia. It is U.S. The reality is that is not where our strength is. The center of gravity in all of this, I think, from a military perspective was described by General Breedlove when he said our unity of effort with the Europeans is that strength, and it is what Putin didn't bank on. So I am going to give you the opportunity to discuss how important the coalition is to the success of Ukraine.    It is my feeling that without that unity with the U.S. that we are not going to be strong in our response and Ukraine won't have the opportunity to move forward itself. So could you comment on that? Because it is lost somewhere in today's hearing.    Ambassador Nuland. Well, thank you for that, Congressman. I think I said earlier in the hearing that we in the European Bureau spend almost as much time working with Europeans on Ukraine as we do working with Ukrainians on Ukraine, because this unity has been so essential and because that unity is constantly being tested and probed by the Kremlin. Because if they can split us, obviously that is their best line to imperil Ukraine.    So first and foremost, on the economic side where it has been a combination of our strong transatlantic support for the IFIs, our strong transatlantic contributions, both U.S. and European, that have made the $17.5-billion package that we have on offer for Ukraine possible now. Without that it wouldn't have been.    In the four to five rounds of sanctions that we have done, if the U.S. had done this unilaterally we would have had a situation where European companies could have just come in and backfilled. If we had not matched what Europe was willing to do, the opposite would have been true or you could have seen efforts to drive a wedge between us. We do believe that, particularly in September and December, the Kremlin underestimated both our unity and our ability to work together. It is not always as quick as we would like because we have 29 countries to coordinate, 34 if you include our other allies in NATO, but it does make us really strong in defense of Ukraine.</t>
   </si>
   <si>
@@ -460,6 +550,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman. Thank you, Ranking Member. And thank you, Ambassador, for being here today. I have a question. The Journal has been reporting on a $5.7-billion deal this week between the German utility RWE AG and an energy investment fund led by the Russian billionaire Mikhail Fridman in which the fund purchased RWE's oil and gas arm DEA.    This deal gives Mr. Fridman the assets to launch a new oil company with assets throughout Europe. DEA produces about 100,000 barrels of oil per day. This is disconcerting for two reasons. One it is the sort of business that we are supposed to be deterring, and two, it provides for Russian control over significant European energy supplies. Mr. Fridman is not currently subject to U.S. sanctions despite his close ties with the Kremlin. Do you know whether he is or he might be a potential target for sanctions?    Ambassador Nuland. Thank you for that. I am going to get back to you on some of the details, but just to make absolutely clear that U.S. and European sanctions have targeted Russian public and government assets and entities. Mr. Fridman runs one of the few remaining private companies in Russia, and as such has had his own strong views as a private citizen about appropriate Russian-European relations.    But let me get back to you on how we have evaluated that particular deal. But it is not a Russian Government deal. It does not deepen the Russian Government's ties into the European energy net or Europeans' dependence on the Russian Government.</t>
   </si>
   <si>
@@ -473,6 +569,12 @@
   </si>
   <si>
     <t>400652</t>
+  </si>
+  <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Poe. Thank the chairman.    Thank you, Ambassador, for being here. Like a lot of folks, including you, I am concerned about Russian aggression. The Russians go into Georgia in 2008, they take one third of that country away from them, and the Russian tanks are still in that third and they are not going to leave. The West pontificated and said that that was bad, and meanwhile Putin is still there. And Russia goes into Crimea, takes over Crimea. Now they are in Eastern Europe. I believe when they successfully take over eastern Ukraine they will keep moving, maybe to the Baltics.    Last year when you were here, May 8th, to be exact, I asked you the purpose of U.S. sanctions. And the question, and I have the transcript here if you want to see it, was is the purpose of our sanctions to stop the Russians or is the purpose of our sanctions to make the Russians leave Crimea? And you answered that the purpose of our sanctions was to make the Russians leave Crimea. Is that still the purpose of sanctions against Russia regarding Crimea? To make them leave?    Ambassador Nuland. Yes, sir. We want Crimea restored to Ukraine. We have designated sanctions vis-a-vis Crimea which as you know we deepened significantly in December, essentially denying U.S. companies the ability to invest in Crimea. Our European partners have done the same. We talked a little bit earlier in the hearing about the impact that that has had in Crimea and we will continue to keep those in place unless and until----</t>
@@ -863,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,7 +973,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,3341 +995,4013 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
+      </c>
       <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
       <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
       <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>96</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
+        <v>96</v>
+      </c>
       <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>107</v>
+      </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>107</v>
+      </c>
       <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>107</v>
+      </c>
       <c r="H71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G72" t="s">
+        <v>107</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
       <c r="H73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>107</v>
+      </c>
       <c r="H74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
       <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G76" t="s">
+        <v>107</v>
+      </c>
       <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>107</v>
+      </c>
       <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G78" t="s">
+        <v>107</v>
+      </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G79" t="s">
+        <v>107</v>
+      </c>
       <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
       <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G83" t="s">
+        <v>107</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G84" t="s">
+        <v>107</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G86" t="s">
+        <v>107</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G87" t="s">
+        <v>107</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>87</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G88" t="s">
+        <v>107</v>
+      </c>
       <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G91" t="s">
+        <v>131</v>
+      </c>
       <c r="H91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>131</v>
+      </c>
       <c r="H92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
       <c r="H94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G95" t="s">
+        <v>138</v>
+      </c>
       <c r="H95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G96" t="s">
+        <v>138</v>
+      </c>
       <c r="H96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G97" t="s">
+        <v>138</v>
+      </c>
       <c r="H97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G98" t="s">
+        <v>138</v>
+      </c>
       <c r="H98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G99" t="s">
+        <v>138</v>
+      </c>
       <c r="H99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>114</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G100" t="s">
+        <v>138</v>
+      </c>
       <c r="H100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G101" t="s">
+        <v>138</v>
+      </c>
       <c r="H101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G102" t="s">
+        <v>138</v>
+      </c>
       <c r="H102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="G103" t="s">
+        <v>138</v>
+      </c>
       <c r="H103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G105" t="s">
+        <v>152</v>
+      </c>
       <c r="H105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G106" t="s">
+        <v>152</v>
+      </c>
       <c r="H106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G107" t="s">
+        <v>152</v>
+      </c>
       <c r="H107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G109" t="s">
+        <v>159</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G110" t="s">
+        <v>159</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G111" t="s">
+        <v>159</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G112" t="s">
+        <v>159</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G113" t="s">
+        <v>159</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G114" t="s">
+        <v>159</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G115" t="s">
+        <v>159</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G116" t="s">
+        <v>159</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G119" t="s">
+        <v>171</v>
+      </c>
       <c r="H119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G120" t="s">
+        <v>171</v>
+      </c>
       <c r="H120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G121" t="s">
+        <v>171</v>
+      </c>
       <c r="H121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G123" t="s">
+        <v>178</v>
+      </c>
       <c r="H123" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>147</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G124" t="s">
+        <v>178</v>
+      </c>
       <c r="H124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>147</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G125" t="s">
+        <v>178</v>
+      </c>
       <c r="H125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="G126" t="s">
+        <v>159</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G127" t="s">
+        <v>185</v>
+      </c>
       <c r="H127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>152</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G128" t="s">
+        <v>185</v>
+      </c>
       <c r="H128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G129" t="s">
+        <v>185</v>
+      </c>
       <c r="H129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>152</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G130" t="s">
+        <v>185</v>
+      </c>
       <c r="H130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G131" t="s">
+        <v>185</v>
+      </c>
       <c r="H131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I131" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>152</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G132" t="s">
+        <v>185</v>
+      </c>
       <c r="H132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I132" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G133" t="s">
+        <v>185</v>
+      </c>
       <c r="H133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I133" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>152</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G134" t="s">
+        <v>185</v>
+      </c>
       <c r="H134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I134" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G135" t="s">
+        <v>185</v>
+      </c>
       <c r="H135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>152</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G136" t="s">
+        <v>185</v>
+      </c>
       <c r="H136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I136" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G137" t="s">
+        <v>185</v>
+      </c>
       <c r="H137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I137" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>152</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G138" t="s">
+        <v>185</v>
+      </c>
       <c r="H138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>152</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G139" t="s">
+        <v>185</v>
+      </c>
       <c r="H139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>131</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="G140" t="s">
+        <v>159</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93669.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93669.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -116,6 +125,9 @@
   </si>
   <si>
     <t>400344</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Ros-Lehtinen</t>
@@ -965,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +985,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,4010 +1010,4404 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G62" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I72" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G95" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H95" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G96" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H96" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G97" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I97" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G98" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H98" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G99" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G103" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="J103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G105" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G106" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G107" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="H107" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>158</v>
-      </c>
-      <c r="G109" t="s">
-        <v>159</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" t="s">
-        <v>159</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>163</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
-      </c>
-      <c r="G111" t="s">
-        <v>159</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>163</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>158</v>
-      </c>
-      <c r="G112" t="s">
-        <v>159</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>158</v>
-      </c>
-      <c r="G113" t="s">
-        <v>159</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>163</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>158</v>
-      </c>
-      <c r="G114" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>163</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>158</v>
-      </c>
-      <c r="G115" t="s">
-        <v>159</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>163</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
-      </c>
-      <c r="G116" t="s">
-        <v>159</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>163</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>158</v>
-      </c>
-      <c r="G117" t="s">
-        <v>159</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>163</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" t="s">
-        <v>159</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>163</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G119" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I119" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G120" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I120" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G121" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I121" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J121" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
-      </c>
-      <c r="G122" t="s">
-        <v>159</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>163</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G123" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I123" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J123" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="H124" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I124" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J124" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G125" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="H125" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I125" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J125" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>158</v>
-      </c>
-      <c r="G126" t="s">
-        <v>159</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>163</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G127" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H127" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I127" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G128" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H128" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I128" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J128" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G129" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J129" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G130" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I130" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G131" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H131" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I131" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J131" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G132" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H132" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I132" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J132" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G133" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H133" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I133" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J133" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G134" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H134" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I134" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G135" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J135" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G136" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H136" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I136" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J136" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G137" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H137" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I137" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J137" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G138" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H138" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I138" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J138" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G139" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H139" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I139" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J139" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>200</v>
+        <v>162</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>163</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
